--- a/TigerV_CRM_Selenium_Project/src/test/resources/TestData/Vtiger_TestScriptData.xlsx
+++ b/TigerV_CRM_Selenium_Project/src/test/resources/TestData/Vtiger_TestScriptData.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\eclipse-workspace\TigerV_CRM_Selenium_Project\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F430A-E431-4E87-9851-68C5566ACA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1C3351F0-2A22-4482-86FC-E26B77A9E59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{775F4AE6-47F9-4BD9-9DB4-0E0B9E024780}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{775F4AE6-47F9-4BD9-9DB4-0E0B9E024780}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateContact" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateOrganization" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:R23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>LastName</t>
   </si>
   <si>
     <t>Sharmila</t>
+  </si>
+  <si>
+    <t>Organization_Name</t>
+  </si>
+  <si>
+    <t>SF</t>
   </si>
 </sst>
 </file>
@@ -72,9 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDE514-88EB-40EA-B1C9-B084BCADF3A7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -433,4 +439,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B230E7C-B51D-4023-85D9-4FD134F3EC97}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>